--- a/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
+++ b/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7E1A7A-484C-4739-8E09-972F3C6D4B87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1CE1DF-750F-467D-98A3-F7AD07B9F443}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>Color Codes</t>
   </si>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,11 +900,11 @@
       <c r="K10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>22</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>33</v>
@@ -950,11 +950,11 @@
       <c r="K11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>22</v>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>33</v>
@@ -1000,11 +1000,11 @@
       <c r="K12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>22</v>
+      <c r="L12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>36</v>
@@ -1050,11 +1050,11 @@
       <c r="K13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>22</v>
+      <c r="L13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>34</v>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,11 +1343,11 @@
       <c r="K10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>22</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>36</v>

--- a/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
+++ b/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1CE1DF-750F-467D-98A3-F7AD07B9F443}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B01C47-0DC6-462D-9E5F-BF78EC7CDCBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>42</v>

--- a/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
+++ b/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B01C47-0DC6-462D-9E5F-BF78EC7CDCBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A764D-2A7B-4F87-A60A-3B317834920C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Delete Devices" sheetId="9" r:id="rId2"/>
+    <sheet name="Add Devices2" sheetId="11" r:id="rId3"/>
+    <sheet name="Delete Devices2" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="56">
   <si>
     <t>Color Codes</t>
   </si>
@@ -176,6 +179,30 @@
   </si>
   <si>
     <t>VerifyAdditionOfDevicesInBackplaneWithOnePanel,VerifyDeletionOfDevicesInBackplane</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1 of 18)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 18)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3 of 18)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1 of 3)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 3)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3 of 3)</t>
+  </si>
+  <si>
+    <t>Pro215S</t>
+  </si>
+  <si>
+    <t>PCS800-1</t>
   </si>
 </sst>
 </file>
@@ -624,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>12</v>
@@ -734,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -907,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
@@ -957,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>22</v>
@@ -1007,62 +1034,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1080,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>42</v>
@@ -1189,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1350,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
@@ -1368,4 +1345,1156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E4C205-930B-4A9C-B96D-58B4C2A8880A}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="I2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81D145-A61C-43DB-97A2-E9B0C1957652}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5FCC14-EAF4-4A4F-BF47-F4C4239F2CC6}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="I2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
+++ b/Test Data/TC_60_Verify_Deletion_Of_PCS_POS_IOB_And_FB_From_Backplane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A764D-2A7B-4F87-A60A-3B317834920C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29532FC-3691-435C-9C2D-1DEFF0C36F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -27,15 +27,89 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AF26B812-9426-4E84-868F-2191317A1FCF}</author>
+  </authors>
+  <commentList>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{AF26B812-9426-4E84-868F-2191317A1FCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Other Slot Cards  (1 of 18</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B3188F59-DF64-404C-A439-DD5DAC361D36}</author>
+  </authors>
+  <commentList>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{B3188F59-DF64-404C-A439-DD5DAC361D36}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Other Slot Cards  (2 of 18)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F7D40C8A-61FF-4B8C-A405-F5974695EAB5}</author>
+  </authors>
+  <commentList>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{F7D40C8A-61FF-4B8C-A405-F5974695EAB5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Other Slot Cards  (1 of 3)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F25C9622-B83C-4E6D-A992-3D8F8C41BC31}</author>
+  </authors>
+  <commentList>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{F25C9622-B83C-4E6D-A992-3D8F8C41BC31}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Other Slot Cards  (2 of 3)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="53">
   <si>
     <t>Color Codes</t>
   </si>
@@ -163,9 +237,6 @@
     <t>Fourth Device</t>
   </si>
   <si>
-    <t>POS800-M-1</t>
-  </si>
-  <si>
     <t>First Device Label</t>
   </si>
   <si>
@@ -181,28 +252,22 @@
     <t>VerifyAdditionOfDevicesInBackplaneWithOnePanel,VerifyDeletionOfDevicesInBackplane</t>
   </si>
   <si>
-    <t>Other Slot Cards  (1 of 18)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (2 of 18)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (3 of 18)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (1 of 3)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (2 of 3)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (3 of 3)</t>
-  </si>
-  <si>
     <t>Pro215S</t>
   </si>
   <si>
-    <t>PCS800-1</t>
+    <t>Other Slot Cards  (1</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3</t>
+  </si>
+  <si>
+    <t>POS800-M - 1</t>
+  </si>
+  <si>
+    <t>PCS800 - 2</t>
   </si>
 </sst>
 </file>
@@ -386,6 +451,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alpesh Dhakad" id="{1161C0FF-D35B-4988-A4A2-55A32BCAFE5F}" userId="S::jdhakaa@jci.com::5593e22c-5d4e-4a9d-8f08-e1be0db709e4" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,12 +720,44 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N10" dT="2021-02-16T12:01:43.11" personId="{1161C0FF-D35B-4988-A4A2-55A32BCAFE5F}" id="{AF26B812-9426-4E84-868F-2191317A1FCF}">
+    <text>Other Slot Cards  (1 of 18</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N10" dT="2021-02-16T12:13:50.00" personId="{1161C0FF-D35B-4988-A4A2-55A32BCAFE5F}" id="{B3188F59-DF64-404C-A439-DD5DAC361D36}">
+    <text>Other Slot Cards  (2 of 18)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N10" dT="2021-02-16T12:06:12.45" personId="{1161C0FF-D35B-4988-A4A2-55A32BCAFE5F}" id="{F7D40C8A-61FF-4B8C-A405-F5974695EAB5}">
+    <text>Other Slot Cards  (1 of 3)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N10" dT="2021-02-16T12:16:49.57" personId="{1161C0FF-D35B-4988-A4A2-55A32BCAFE5F}" id="{F25C9622-B83C-4E6D-A992-3D8F8C41BC31}">
+    <text>Other Slot Cards  (2 of 3)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -718,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>39</v>
@@ -736,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -751,8 +854,8 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
+      <c r="I4" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>35</v>
@@ -904,13 +1007,13 @@
         <v>29</v>
       </c>
       <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1050,15 +1153,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -1123,10 +1227,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>39</v>
@@ -1141,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1156,11 +1260,11 @@
       <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
+      <c r="I4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>35</v>
@@ -1184,7 +1288,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -1309,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1344,15 +1448,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E4C205-930B-4A9C-B96D-58B4C2A8880A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E4C205-930B-4A9C-B96D-58B4C2A8880A}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -1416,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>39</v>
@@ -1434,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1449,8 +1554,8 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
+      <c r="I4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>35</v>
@@ -1593,7 +1698,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>28</v>
@@ -1602,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>16</v>
@@ -1632,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
@@ -1682,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>22</v>
@@ -1732,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>22</v>
@@ -1748,15 +1853,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81D145-A61C-43DB-97A2-E9B0C1957652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81D145-A61C-43DB-97A2-E9B0C1957652}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -1821,10 +1927,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>39</v>
@@ -1839,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1855,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>35</v>
@@ -1882,7 +1988,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -1986,7 +2092,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>28</v>
@@ -2007,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -2025,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
@@ -2042,6 +2148,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2104,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -2114,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>39</v>
@@ -2132,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
